--- a/01_월별_인보이스_정합성_검증/File/Full_Invoice_Report.xlsx
+++ b/01_월별_인보이스_정합성_검증/File/Full_Invoice_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA_Trainingbook\Session6_실습3\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\21_RPA_기본_강의_실습\Private_Example\01_월별_인보이스_정합성_검증\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5DD0EF-028D-4741-A397-E63769A3F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966AB414-15C1-4C39-9445-039E9F005AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{32002507-FB41-5D4B-91B4-C3659917347F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{32002507-FB41-5D4B-91B4-C3659917347F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -820,7 +820,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95A5D97-4D3F-6C42-9938-E573084BED26}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
